--- a/schedule_615_test.xlsx
+++ b/schedule_615_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH615_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF6EEE-E523-4505-85DC-21A269E3BDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C65F3E4-824A-498E-BEB6-0F8E8CF9EE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29370" yWindow="1590" windowWidth="27840" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_schedule" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
   <si>
     <t>Assignment</t>
   </si>
@@ -355,9 +355,6 @@
     <t>[Tidy data principles](https://tidyr.tidyverse.org/articles/tidy-data.html#tidying) (Optional)</t>
   </si>
   <si>
-    <t>[HW01 Data Entry](hw/hw01_data_entry.html)</t>
-  </si>
-  <si>
     <t>[Lec02 - Formulating Research Questions](lecture/lec02_formulating_research_questions.html)</t>
   </si>
   <si>
@@ -404,9 +401,6 @@
     <t xml:space="preserve">[What is HackMD](https://hackmd.io/@norcalbiostat/intro_hackmd)  </t>
   </si>
   <si>
-    <t>[t01_1 -Data Architecture](lecture/lec01_spreadsheets.html)</t>
-  </si>
-  <si>
     <t>t00-welcome</t>
   </si>
   <si>
@@ -426,9 +420,6 @@
   </si>
   <si>
     <t>Data entry, spreadsheets, metadata, codebooks</t>
-  </si>
-  <si>
-    <t>slides</t>
   </si>
   <si>
     <t>lec00-welcome</t>
@@ -448,7 +439,34 @@
     <t>Choosing project research data</t>
   </si>
   <si>
-    <t>[HW00 Setup](hw/hw00-setup.html)</t>
+    <t>hw</t>
+  </si>
+  <si>
+    <t>[HW00 Getting Setup](hw00-setup.html)</t>
+  </si>
+  <si>
+    <t>[HW01 Data Entry](hw01_data_entry.html)</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>Project Introduction</t>
+  </si>
+  <si>
+    <t>lec01-data-arch</t>
+  </si>
+  <si>
+    <t>topic obj</t>
+  </si>
+  <si>
+    <t>Get connected to all the class materials &amp; tools</t>
+  </si>
+  <si>
+    <t>Data is recorded in different manners
+Spreadsheets are a common method of recording data
+Codebooks are an essential piece in learning about the data
+There is a difference between human readable and computer readable data formats</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C53430-DF90-419A-8B50-2697098F702F}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1324,135 +1342,145 @@
     <col min="3" max="3" width="13.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="4"/>
     <col min="5" max="6" width="19.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="3"/>
+    <col min="7" max="8" width="21" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>78</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="K1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="45">
         <v>43333</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>116</v>
+      <c r="C2" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="D2" s="27">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="B3" s="45">
         <v>43333</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>119</v>
+      <c r="C3" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="D3" s="27">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="47"/>
+      <c r="K3" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="45">
         <v>43335</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="27">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1461,49 +1489,51 @@
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="27">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="46"/>
-      <c r="G5" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="I5" s="46"/>
-      <c r="J5" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="48" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B6" s="45">
         <v>43342</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="27">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="46"/>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J6" s="46"/>
+      <c r="K6" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1512,49 +1542,51 @@
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="33">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="46"/>
       <c r="J7" s="46"/>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <v>43354</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>
       <c r="E8" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="41" t="s">
-        <v>109</v>
-      </c>
+      <c r="G8" s="41"/>
       <c r="H8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="42" t="s">
+      <c r="I8" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="43">
         <v>43356</v>
       </c>
@@ -1567,12 +1599,13 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="44" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B10" s="43">
         <v>43361</v>
       </c>
@@ -1582,19 +1615,20 @@
         <v>87</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="28"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="I10" s="28"/>
-      <c r="J10" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="28"/>
+      <c r="K10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>43368</v>
       </c>
@@ -1605,9 +1639,10 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="28"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="31">
         <v>43370</v>
       </c>
@@ -1620,12 +1655,13 @@
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="B13" s="31">
         <v>43375</v>
       </c>
@@ -1636,15 +1672,16 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="K13" s="40" t="s">
+      <c r="J13" s="28"/>
+      <c r="L13" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="B14" s="31">
         <v>43377</v>
       </c>
@@ -1657,9 +1694,10 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J14" s="28"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="31">
         <v>43382</v>
       </c>
@@ -1670,13 +1708,14 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="J15" s="28"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="B16" s="31">
         <v>43384</v>
       </c>
@@ -1687,15 +1726,16 @@
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="K16" s="3" t="s">
+      <c r="J16" s="28"/>
+      <c r="L16" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="31">
         <v>43389</v>
       </c>
@@ -1706,7 +1746,7 @@
       </c>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="31">
         <v>43391</v>
       </c>
@@ -1719,8 +1759,9 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="31">
         <v>43396</v>
       </c>
@@ -1731,12 +1772,13 @@
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="31">
         <v>43398</v>
       </c>
@@ -1749,12 +1791,13 @@
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="31">
         <v>43410</v>
       </c>
@@ -1764,14 +1807,14 @@
         <v>93</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="L21" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="31">
         <v>43412</v>
       </c>
@@ -1782,15 +1825,16 @@
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="28"/>
+      <c r="I22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="K22" s="29" t="s">
+      <c r="J22" s="28"/>
+      <c r="L22" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="31">
         <v>43417</v>
       </c>
@@ -1799,15 +1843,16 @@
         <v>30</v>
       </c>
       <c r="G23" s="28"/>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="K23" s="29" t="s">
+      <c r="J23" s="28"/>
+      <c r="L23" s="29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="31">
         <v>43419</v>
       </c>
@@ -1816,12 +1861,13 @@
         <v>12</v>
       </c>
       <c r="G24" s="28"/>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="28"/>
+      <c r="I24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="31">
         <v>43419</v>
       </c>
@@ -1834,12 +1880,13 @@
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="38" t="s">
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="31">
         <v>43431</v>
       </c>
@@ -1850,12 +1897,13 @@
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="28"/>
+      <c r="I26" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="31">
         <v>43438</v>
       </c>
@@ -1865,11 +1913,11 @@
         <v>86</v>
       </c>
       <c r="F27" s="28"/>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B28" s="31">
         <v>43440</v>
       </c>
@@ -1880,12 +1928,13 @@
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="31">
         <v>43445</v>
       </c>
@@ -1893,11 +1942,11 @@
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="31">
         <v>43449</v>
       </c>
@@ -1905,12 +1954,12 @@
       <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:K30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:L30">
     <sortCondition ref="D2:D30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_615_test.xlsx
+++ b/schedule_615_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH615_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C65F3E4-824A-498E-BEB6-0F8E8CF9EE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723C25AF-F3D9-4E3F-91C5-A5D6489DAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="1590" windowWidth="27840" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_schedule" sheetId="12" r:id="rId1"/>
@@ -451,9 +451,6 @@
     <t>lecture</t>
   </si>
   <si>
-    <t>Project Introduction</t>
-  </si>
-  <si>
     <t>lec01-data-arch</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
 Spreadsheets are a common method of recording data
 Codebooks are an essential piece in learning about the data
 There is a difference between human readable and computer readable data formats</t>
+  </si>
+  <si>
+    <t>Project Stage 1: Choosing your topic</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1370,7 @@
         <v>118</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>129</v>
@@ -1408,7 +1408,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>121</v>
@@ -1443,10 +1443,10 @@
         <v>120</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="41" t="s">
         <v>98</v>
@@ -1467,10 +1467,10 @@
       <c r="D4" s="27">
         <v>1.3</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="46"/>

--- a/schedule_615_test.xlsx
+++ b/schedule_615_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH615_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723C25AF-F3D9-4E3F-91C5-A5D6489DAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C11051-25C0-47AF-93FC-446D45357B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
   <si>
     <t>Assignment</t>
   </si>
@@ -140,10 +140,6 @@
   </si>
   <si>
     <t>03 RR / DM</t>
-  </si>
-  <si>
-    <t>[OpenIntro Statistics textbook Ch5](https://leanpub.com/openintro-statistics) or Dr. D's [Math 315 course notes Ch4](https://norcalbiostat.github.io/MATH315/reading/RAD_course_notes_f19.pdf) 
-[Lec05](https://hackmd.io/@norcalbiostat/math615_lec05)</t>
   </si>
   <si>
     <t>[Lec06](https://hackmd.io/@norcalbiostat/math615_lec06)</t>
@@ -292,10 +288,6 @@
   </si>
   <si>
     <t>T-tests for difference in means</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulating testable hypothesis
-</t>
   </si>
   <si>
     <t>Preparing data for analysis</t>
@@ -353,9 +345,6 @@
   </si>
   <si>
     <t>[Tidy data principles](https://tidyr.tidyverse.org/articles/tidy-data.html#tidying) (Optional)</t>
-  </si>
-  <si>
-    <t>[Lec02 - Formulating Research Questions](lecture/lec02_formulating_research_questions.html)</t>
   </si>
   <si>
     <t>[Lec03 - Data preparation (ASCN Ch 1)](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
@@ -467,6 +456,67 @@
   </si>
   <si>
     <t>Project Stage 1: Choosing your topic</t>
+  </si>
+  <si>
+    <t>t02_asking_q</t>
+  </si>
+  <si>
+    <t>t03_dm</t>
+  </si>
+  <si>
+    <t>t04_eda</t>
+  </si>
+  <si>
+    <t>t05_probability</t>
+  </si>
+  <si>
+    <t>t06_estimation</t>
+  </si>
+  <si>
+    <t>t07_biv_inf</t>
+  </si>
+  <si>
+    <t>t08_mv_inf</t>
+  </si>
+  <si>
+    <t>t09_glm</t>
+  </si>
+  <si>
+    <t>t10_model_fit</t>
+  </si>
+  <si>
+    <t>t11_exp_design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OpenIntro Statistics textbook Ch5](https://leanpub.com/openintro-statistics) or Dr. D's [Math 315 course notes Ch4](https://norcalbiostat.github.io/MATH315/reading/RAD_course_notes_f19.pdf) 
+</t>
+  </si>
+  <si>
+    <t>[Lec05](https://hackmd.io/@norcalbiostat/math615_lec05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write down several research questions
+</t>
+  </si>
+  <si>
+    <t>Asking questions is easy. Asking _answerable_ questions is more difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulating research questions
+</t>
+  </si>
+  <si>
+    <t>Import your chosen data into your SPC
+Understand options for literate programming
+Create a reproducible workflow
+Know several questions to ask yourself when preparing data for analysis</t>
+  </si>
+  <si>
+    <t>lec02-asking-questions</t>
+  </si>
+  <si>
+    <t>[How to Write an Effective Research Question](https://library.csuchico.edu/library-curricula)
+[Different types of Hypothesis](https://typeset.io/resources/how-to-write-research-hypothesis-definition-types-examples-and-quick-tips/)</t>
   </si>
 </sst>
 </file>
@@ -757,7 +807,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -902,6 +952,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -1331,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C53430-DF90-419A-8B50-2697098F702F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1352,40 +1408,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>118</v>
-      </c>
       <c r="G1" s="34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1396,34 +1452,34 @@
         <v>43333</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="27">
         <v>1.1000000000000001</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.25">
@@ -1431,32 +1487,32 @@
         <v>43333</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" s="27">
         <v>1.2</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1468,10 +1524,10 @@
         <v>1.3</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
@@ -1480,58 +1536,72 @@
       <c r="K4" s="46"/>
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="45">
         <v>43340</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="46" t="s">
+        <v>132</v>
+      </c>
       <c r="D5" s="27">
         <v>2.1</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>144</v>
+      </c>
       <c r="H5" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="46"/>
+        <v>148</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B6" s="45">
         <v>43342</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="D6" s="27">
-        <v>2.2000000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="G6" s="46" t="s">
+        <v>147</v>
+      </c>
       <c r="H6" s="46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="48"/>
+        <v>100</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1542,7 +1612,7 @@
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="33">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>10</v>
@@ -1550,40 +1620,42 @@
       <c r="F7" s="47"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="48" t="s">
-        <v>65</v>
-      </c>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B8" s="43">
         <v>43354</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="27">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="E8" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1602,7 +1674,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
@@ -1610,31 +1682,35 @@
         <v>43361</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27">
+        <v>4.2</v>
+      </c>
       <c r="E10" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>43368</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27">
+        <v>4.2</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -1658,27 +1734,34 @@
       <c r="J12" s="38"/>
       <c r="K12" s="39"/>
       <c r="L12" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="B13" s="31">
         <v>43375</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="27">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="E13" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="L13" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1686,9 +1769,11 @@
         <v>43377</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="27">
+        <v>5.2</v>
+      </c>
       <c r="E14" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -1701,59 +1786,71 @@
       <c r="B15" s="31">
         <v>43382</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="27">
+        <v>6.1</v>
+      </c>
       <c r="E15" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" s="28"/>
+      <c r="K15" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="B16" s="31">
         <v>43384</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="27">
+        <v>7.1</v>
+      </c>
       <c r="E16" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="28" t="s">
-        <v>36</v>
-      </c>
       <c r="J16" s="28"/>
+      <c r="K16" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="L16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="31">
         <v>43389</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="27">
+        <v>7.2</v>
+      </c>
       <c r="E17" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="31">
         <v>43391</v>
       </c>
       <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="27">
+        <v>7.3</v>
+      </c>
       <c r="E18" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -1761,24 +1858,26 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
     </row>
-    <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="31">
         <v>43396</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="27">
+        <v>7.4</v>
+      </c>
       <c r="E19" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="31">
         <v>43398</v>
       </c>
@@ -1794,80 +1893,92 @@
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="31">
         <v>43410</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="27">
+        <v>8.1</v>
+      </c>
       <c r="E21" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="28"/>
       <c r="I21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="31">
         <v>43412</v>
       </c>
       <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="27">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="E22" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" s="28"/>
       <c r="L22" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="31">
         <v>43417</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="27">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J23" s="28"/>
       <c r="L23" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="31">
-        <v>43419</v>
-      </c>
-      <c r="D24" s="27"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="27">
+        <v>9.1</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="31">
         <v>43419</v>
       </c>
@@ -1883,58 +1994,70 @@
       <c r="J25" s="38"/>
       <c r="K25" s="39"/>
       <c r="L25" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>14</v>
+      </c>
       <c r="B26" s="31">
         <v>43431</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="27">
+        <v>10.1</v>
+      </c>
       <c r="E26" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="28"/>
     </row>
-    <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="31">
         <v>43438</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27"/>
       <c r="E27" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" s="28"/>
       <c r="L27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>15</v>
+      </c>
       <c r="B28" s="31">
         <v>43440</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="28" t="s">
+        <v>141</v>
+      </c>
       <c r="D28" s="27"/>
-      <c r="E28" s="28" t="s">
-        <v>96</v>
+      <c r="E28" s="49" t="s">
+        <v>94</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="31">
         <v>43445</v>
       </c>
@@ -1943,10 +2066,13 @@
         <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>16</v>
+      </c>
       <c r="B30" s="31">
         <v>43449</v>
       </c>
@@ -1955,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2255,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
@@ -2215,7 +2341,7 @@
         <v>3.2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -2276,7 +2402,7 @@
         <v>4.2</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
@@ -2304,7 +2430,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>7</v>
@@ -2332,7 +2458,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
@@ -2346,7 +2472,7 @@
         <v>6.2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>0</v>
@@ -2374,7 +2500,7 @@
         <v>7.1</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>7</v>
@@ -2388,7 +2514,7 @@
         <v>7.3</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>0</v>
@@ -2402,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>7</v>
@@ -2432,7 +2558,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>7</v>
@@ -2447,7 +2573,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>0</v>
@@ -2462,7 +2588,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
@@ -2477,7 +2603,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>0</v>
@@ -2492,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
@@ -2507,7 +2633,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>0</v>
@@ -2537,7 +2663,7 @@
         <v>10.5</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>7</v>
@@ -2567,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
@@ -2642,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>8</v>

--- a/schedule_615_test.xlsx
+++ b/schedule_615_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH615_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C11051-25C0-47AF-93FC-446D45357B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4F457-02A7-459C-A782-B3B20FFBB10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="152">
   <si>
     <t>Assignment</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data management </t>
   </si>
   <si>
     <t>Poster Presentation</t>
@@ -234,12 +231,6 @@
   </si>
   <si>
     <t>Video</t>
-  </si>
-  <si>
-    <t>[HW02 RQ Formulation](hw/02_rq_formulation.html)</t>
-  </si>
-  <si>
-    <t>[HW03 Data Management](hw/03_data_management.html)</t>
   </si>
   <si>
     <t>[HW04 Describing Data Univariately](hw/04_univariate_graphing.html)</t>
@@ -345,18 +336,6 @@
   </si>
   <si>
     <t>[Tidy data principles](https://tidyr.tidyverse.org/articles/tidy-data.html#tidying) (Optional)</t>
-  </si>
-  <si>
-    <t>[Lec03 - Data preparation (ASCN Ch 1)](https://norcalbiostat.github.io/AppliedStatistics_notes/data-prep.html)</t>
-  </si>
-  <si>
-    <t>PMA6 Ch 3</t>
-  </si>
-  <si>
-    <t>[Lec02 - RQ collab notes](https://hackmd.io/@norcalbiostat/02_rq)</t>
-  </si>
-  <si>
-    <t>[Lec03 - Data prep collab notes](https://hackmd.io/@norcalbiostat/03_dm)</t>
   </si>
   <si>
     <t>[Lec04 -Describing Data notes](https://hackmd.io/@norcalbiostat/04_descr_data)</t>
@@ -506,17 +485,45 @@
 </t>
   </si>
   <si>
-    <t>Import your chosen data into your SPC
+    <t>lec02-asking-questions</t>
+  </si>
+  <si>
+    <t>[How to Write an Effective Research Question](https://library.csuchico.edu/library-curricula)</t>
+  </si>
+  <si>
+    <t>[HW02 RQ Formulation](hw02_rq_formulation.html)</t>
+  </si>
+  <si>
+    <t>[HW03 Data Management](hw03_dm.html)</t>
+  </si>
+  <si>
+    <t>PMA6 Ch 3
+ASCN Ch 1</t>
+  </si>
+  <si>
+    <t>Know several questions to ask yourself when preparing data for analysis
 Understand options for literate programming
+Import your chosen data into your SPC
 Create a reproducible workflow
-Know several questions to ask yourself when preparing data for analysis</t>
-  </si>
-  <si>
-    <t>lec02-asking-questions</t>
-  </si>
-  <si>
-    <t>[How to Write an Effective Research Question](https://library.csuchico.edu/library-curricula)
-[Different types of Hypothesis](https://typeset.io/resources/how-to-write-research-hypothesis-definition-types-examples-and-quick-tips/)</t>
+Create a reproducible script file that imports the raw data, performs data management tasks, exports an analysis ready data set</t>
+  </si>
+  <si>
+    <t>lec03-data-management</t>
+  </si>
+  <si>
+    <t>Where an inordinate amount of time is spent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data wrangling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep coding, coding, coding, keep them fingers flowing, keep them data scrolling, Compile! </t>
+  </si>
+  <si>
+    <t>[Formulating Research Questions](https://hackmd.io/@norcalbiostat/02_rq)</t>
+  </si>
+  <si>
+    <t>[Preparing data for analysis](https://hackmd.io/@norcalbiostat/03_dm)</t>
   </si>
 </sst>
 </file>
@@ -807,7 +814,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -935,9 +942,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -958,6 +962,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -1388,7 +1401,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1408,309 +1421,303 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="H1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>119</v>
-      </c>
       <c r="L1" s="37" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>43333</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D2" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>129</v>
+      <c r="E2" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>43333</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="27">
         <v>1.2</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>130</v>
+      <c r="E3" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>123</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="47"/>
+        <v>93</v>
+      </c>
+      <c r="J3" s="46"/>
       <c r="K3" s="41" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>43335</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="27">
         <v>1.3</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="47"/>
+    </row>
+    <row r="5" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>43340</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>132</v>
+      <c r="C5" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="D5" s="27">
         <v>2.1</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
+        <v>137</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44">
         <v>43342</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>133</v>
+      <c r="C6" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="27">
         <v>3.1</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46" t="s">
+      <c r="E6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="G6" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>43349</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="33">
         <v>3.2</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="48"/>
+      <c r="E7" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="43">
+      <c r="B8" s="44">
         <v>43354</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="27">
-        <v>4.0999999999999996</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D8" s="27"/>
       <c r="E8" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>65</v>
+      <c r="H8" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="43">
+      <c r="B9" s="44">
         <v>43356</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="27"/>
       <c r="E9" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="44" t="s">
-        <v>67</v>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="43" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="43">
+      <c r="B10" s="44">
         <v>43361</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="27">
-        <v>4.2</v>
-      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="41" t="s">
-        <v>102</v>
+      <c r="H10" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>43368</v>
       </c>
-      <c r="D11" s="27">
-        <v>4.2</v>
-      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -1725,7 +1732,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="27"/>
       <c r="E12" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -1734,7 +1741,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="39"/>
       <c r="L12" s="38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
@@ -1742,26 +1749,24 @@
         <v>43375</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="27">
-        <v>5.0999999999999996</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1769,11 +1774,9 @@
         <v>43377</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="27">
-        <v>5.2</v>
-      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -1787,20 +1790,18 @@
         <v>43382</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="27">
-        <v>6.1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -1809,23 +1810,21 @@
         <v>43384</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="27">
-        <v>7.1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1833,11 +1832,9 @@
         <v>43389</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="27">
-        <v>7.2</v>
-      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" s="28"/>
     </row>
@@ -1846,11 +1843,9 @@
         <v>43391</v>
       </c>
       <c r="C18" s="28"/>
-      <c r="D18" s="27">
-        <v>7.3</v>
-      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -1863,17 +1858,15 @@
         <v>43396</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="27">
-        <v>7.4</v>
-      </c>
+      <c r="D19" s="27"/>
       <c r="E19" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="28"/>
     </row>
@@ -1884,7 +1877,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="27"/>
       <c r="E20" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -1893,7 +1886,7 @@
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -1901,20 +1894,18 @@
         <v>43410</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="27">
-        <v>8.1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D21" s="27"/>
       <c r="E21" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F21" s="28"/>
       <c r="I21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1922,58 +1913,52 @@
         <v>43412</v>
       </c>
       <c r="C22" s="28"/>
-      <c r="D22" s="27">
-        <v>8.1999999999999993</v>
-      </c>
+      <c r="D22" s="27"/>
       <c r="E22" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" s="28"/>
       <c r="L22" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="31">
         <v>43417</v>
       </c>
-      <c r="D23" s="27">
-        <v>8.3000000000000007</v>
-      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="28"/>
       <c r="L23" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="27">
-        <v>9.1</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D24" s="27"/>
       <c r="E24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="28"/>
       <c r="L24" s="29"/>
@@ -1985,7 +1970,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="27"/>
       <c r="E25" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -1994,7 +1979,7 @@
       <c r="J25" s="38"/>
       <c r="K25" s="39"/>
       <c r="L25" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -2005,74 +1990,72 @@
         <v>43431</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="27">
-        <v>10.1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>15</v>
+      </c>
       <c r="B27" s="31">
         <v>43438</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27"/>
       <c r="E27" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" s="28"/>
       <c r="L27" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>15</v>
-      </c>
       <c r="B28" s="31">
         <v>43440</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D28" s="27"/>
-      <c r="E28" s="49" t="s">
-        <v>94</v>
+      <c r="E28" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>16</v>
+      </c>
       <c r="B29" s="31">
         <v>43445</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>16</v>
-      </c>
       <c r="B30" s="31">
         <v>43449</v>
       </c>
@@ -2081,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2131,10 +2114,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2169,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -2212,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>0</v>
@@ -2255,7 +2238,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
@@ -2298,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -2341,7 +2324,7 @@
         <v>3.2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -2379,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>0</v>
@@ -2402,7 +2385,7 @@
         <v>4.2</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
@@ -2416,7 +2399,7 @@
         <v>4.3</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -2430,7 +2413,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>7</v>
@@ -2444,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>0</v>
@@ -2458,7 +2441,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
@@ -2472,7 +2455,7 @@
         <v>6.2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>0</v>
@@ -2486,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>5</v>
@@ -2500,7 +2483,7 @@
         <v>7.1</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>7</v>
@@ -2514,7 +2497,7 @@
         <v>7.3</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>0</v>
@@ -2528,7 +2511,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>7</v>
@@ -2543,7 +2526,7 @@
         <v>8.4</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>5</v>
@@ -2558,7 +2541,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>7</v>
@@ -2573,7 +2556,7 @@
         <v>8.6</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>0</v>
@@ -2588,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
@@ -2603,7 +2586,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>0</v>
@@ -2618,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
@@ -2633,7 +2616,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>0</v>
@@ -2648,7 +2631,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>5</v>
@@ -2663,7 +2646,7 @@
         <v>10.5</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>7</v>
@@ -2678,7 +2661,7 @@
         <v>10.6</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>5</v>
@@ -2693,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
@@ -2708,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>7</v>
@@ -2723,7 +2706,7 @@
         <v>11.2</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>5</v>
@@ -2738,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>7</v>
@@ -2768,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>8</v>

--- a/schedule_615_test.xlsx
+++ b/schedule_615_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MATH615_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4F457-02A7-459C-A782-B3B20FFBB10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D96E957-1EC7-42D2-8F0C-6353EE85E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="1350" windowWidth="27840" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekly_schedule" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="153">
   <si>
     <t>Assignment</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Video</t>
-  </si>
-  <si>
-    <t>[HW04 Describing Data Univariately](hw/04_univariate_graphing.html)</t>
   </si>
   <si>
     <t>[HW05 Graphing Relationships](hw/05_bivariate_graphing_assignment.html)</t>
@@ -338,22 +335,12 @@
     <t>[Tidy data principles](https://tidyr.tidyverse.org/articles/tidy-data.html#tidying) (Optional)</t>
   </si>
   <si>
-    <t>[Lec04 -Describing Data notes](https://hackmd.io/@norcalbiostat/04_descr_data)</t>
-  </si>
-  <si>
     <t>[Lec05 -Describing Relationships notes](https://hackmd.io/@norcalbiostat/05_descr_relationships)</t>
   </si>
   <si>
     <t>[Lec04 - Describing Relationships (ASCN Ch 2.4)](https://norcalbiostat.github.io/AppliedStatistics_notes/bivariate-visualizations.html)</t>
   </si>
   <si>
-    <t>PMA6 Ch 4  
-[ASCN Ch 2.3](https://norcalbiostat.github.io/AppliedStatistics_notes/univariate-visualizations.html)</t>
-  </si>
-  <si>
-    <t>[Lec04 - Describing Data](lecture/lec04_describing_data.html)</t>
-  </si>
-  <si>
     <t>Describing distributions of data</t>
   </si>
   <si>
@@ -376,9 +363,6 @@
   </si>
   <si>
     <t>topic/</t>
-  </si>
-  <si>
-    <t>t01-data-arch</t>
   </si>
   <si>
     <t>topic subtitle</t>
@@ -413,13 +397,7 @@
     <t>[HW00 Getting Setup](hw00-setup.html)</t>
   </si>
   <si>
-    <t>[HW01 Data Entry](hw01_data_entry.html)</t>
-  </si>
-  <si>
     <t>lecture</t>
-  </si>
-  <si>
-    <t>lec01-data-arch</t>
   </si>
   <si>
     <t>topic obj</t>
@@ -437,15 +415,6 @@
     <t>Project Stage 1: Choosing your topic</t>
   </si>
   <si>
-    <t>t02_asking_q</t>
-  </si>
-  <si>
-    <t>t03_dm</t>
-  </si>
-  <si>
-    <t>t04_eda</t>
-  </si>
-  <si>
     <t>t05_probability</t>
   </si>
   <si>
@@ -485,16 +454,7 @@
 </t>
   </si>
   <si>
-    <t>lec02-asking-questions</t>
-  </si>
-  <si>
     <t>[How to Write an Effective Research Question](https://library.csuchico.edu/library-curricula)</t>
-  </si>
-  <si>
-    <t>[HW02 RQ Formulation](hw02_rq_formulation.html)</t>
-  </si>
-  <si>
-    <t>[HW03 Data Management](hw03_dm.html)</t>
   </si>
   <si>
     <t>PMA6 Ch 3
@@ -508,9 +468,6 @@
 Create a reproducible script file that imports the raw data, performs data management tasks, exports an analysis ready data set</t>
   </si>
   <si>
-    <t>lec03-data-management</t>
-  </si>
-  <si>
     <t>Where an inordinate amount of time is spent</t>
   </si>
   <si>
@@ -524,6 +481,52 @@
   </si>
   <si>
     <t>[Preparing data for analysis](https://hackmd.io/@norcalbiostat/03_dm)</t>
+  </si>
+  <si>
+    <t>Visualizing your data is the first line of defense against bad data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create appropriate summary statistics and visualizations for different types of data. </t>
+  </si>
+  <si>
+    <t>t02-asking_q</t>
+  </si>
+  <si>
+    <t>t03-data_prep</t>
+  </si>
+  <si>
+    <t>t04-describing_distributions</t>
+  </si>
+  <si>
+    <t>t01-data_arch</t>
+  </si>
+  <si>
+    <t>PMA6 Ch 4  
+ASCN Ch 2.3</t>
+  </si>
+  <si>
+    <t>lec03-data_management</t>
+  </si>
+  <si>
+    <t>lec02-asking_questions</t>
+  </si>
+  <si>
+    <t>lec01-data_arch</t>
+  </si>
+  <si>
+    <t>lec04_describing_data</t>
+  </si>
+  <si>
+    <t>[HW01 Data Entry](hw01-data_entry.html)</t>
+  </si>
+  <si>
+    <t>[HW02 RQ Formulation](hw02-rq_formulation.html)</t>
+  </si>
+  <si>
+    <t>[HW03 Data Management](hw03-dm.html)</t>
+  </si>
+  <si>
+    <t>[HW04 Univariate Graphing](hw04-univ_graphing.html)</t>
   </si>
 </sst>
 </file>
@@ -814,7 +817,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="77" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -971,6 +974,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -1400,16 +1415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C53430-DF90-419A-8B50-2697098F702F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4"/>
-    <col min="2" max="2" width="10.75" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="4"/>
+    <col min="1" max="2" width="8.875" style="4"/>
+    <col min="3" max="3" width="10.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
     <col min="5" max="6" width="19.25" style="3" customWidth="1"/>
     <col min="7" max="8" width="21" style="3" customWidth="1"/>
     <col min="9" max="9" width="22" style="3" customWidth="1"/>
@@ -1421,28 +1436,28 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>121</v>
-      </c>
       <c r="H1" s="34" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>31</v>
@@ -1451,189 +1466,189 @@
         <v>61</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="44">
         <v>43333</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>109</v>
-      </c>
       <c r="G2" s="45" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J2" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+      <c r="B3" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="44">
+        <v>43333</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="41" t="s">
         <v>92</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.25">
-      <c r="B3" s="44">
-        <v>43333</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="27">
-        <v>1.2</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="44">
+      <c r="B4" s="53">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="54">
         <v>43335</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="47"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="C5" s="44">
         <v>43340</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="27">
-        <v>2.1</v>
+      <c r="D5" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J5" s="45"/>
       <c r="K5" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44">
+    </row>
+    <row r="6" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6" s="44">
         <v>43342</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="27">
-        <v>3.1</v>
+      <c r="D6" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G6" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>146</v>
-      </c>
       <c r="I6" s="45" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J6" s="45"/>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="33">
+        <v>3.1</v>
+      </c>
+      <c r="C7" s="44">
         <v>43349</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="33">
-        <v>3.2</v>
-      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="52" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -1642,39 +1657,48 @@
       <c r="K7" s="45"/>
       <c r="L7" s="47"/>
     </row>
-    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
+    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C8" s="44">
         <v>43354</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="45" t="s">
-        <v>98</v>
+      <c r="D8" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="J8" s="45"/>
-      <c r="K8" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>62</v>
+      <c r="K8" s="45"/>
+      <c r="L8" s="42" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="44">
+      <c r="B9" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="C9" s="44">
         <v>43356</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
         <v>26</v>
       </c>
@@ -1685,39 +1709,39 @@
       <c r="J9" s="50"/>
       <c r="K9" s="51"/>
       <c r="L9" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="44">
+      <c r="B10" s="27"/>
+      <c r="C10" s="44">
         <v>43361</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="41"/>
       <c r="H10" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
       <c r="K10" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="31">
+      <c r="B11" s="27"/>
+      <c r="C11" s="31">
         <v>43368</v>
       </c>
-      <c r="D11" s="27"/>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -1726,11 +1750,11 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="31">
+      <c r="B12" s="27"/>
+      <c r="C12" s="31">
         <v>43370</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
         <v>27</v>
       </c>
@@ -1741,42 +1765,42 @@
       <c r="J12" s="38"/>
       <c r="K12" s="39"/>
       <c r="L12" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="31">
+      <c r="B13" s="27"/>
+      <c r="C13" s="31">
         <v>43375</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="E13" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="B14" s="31">
+      <c r="B14" s="27"/>
+      <c r="C14" s="31">
         <v>43377</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -1786,15 +1810,15 @@
       <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="31">
+      <c r="B15" s="27"/>
+      <c r="C15" s="31">
         <v>43382</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="E15" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -1806,15 +1830,15 @@
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="B16" s="31">
+      <c r="B16" s="27"/>
+      <c r="C16" s="31">
         <v>43384</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="28" t="s">
+        <v>120</v>
+      </c>
       <c r="E16" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -1824,28 +1848,28 @@
         <v>34</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="31">
+      <c r="B17" s="27"/>
+      <c r="C17" s="31">
         <v>43389</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="31">
+        <v>43391</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="31">
-        <v>43391</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -1854,11 +1878,11 @@
       <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="31">
+      <c r="B19" s="27"/>
+      <c r="C19" s="31">
         <v>43396</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="28" t="s">
         <v>35</v>
       </c>
@@ -1871,11 +1895,11 @@
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="31">
+      <c r="B20" s="27"/>
+      <c r="C20" s="31">
         <v>43398</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
         <v>28</v>
       </c>
@@ -1886,36 +1910,36 @@
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="31">
+      <c r="B21" s="27"/>
+      <c r="C21" s="31">
         <v>43410</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="E21" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="28"/>
       <c r="I21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="31">
+      <c r="B22" s="27"/>
+      <c r="C22" s="31">
         <v>43412</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -1925,14 +1949,14 @@
       </c>
       <c r="J22" s="28"/>
       <c r="L22" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="31">
+      <c r="B23" s="27"/>
+      <c r="C23" s="31">
         <v>43417</v>
       </c>
-      <c r="D23" s="27"/>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1943,15 +1967,15 @@
       </c>
       <c r="J23" s="28"/>
       <c r="L23" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1964,11 +1988,11 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="31">
+      <c r="B25" s="27"/>
+      <c r="C25" s="31">
         <v>43419</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="27"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
         <v>30</v>
       </c>
@@ -1979,22 +2003,22 @@
       <c r="J25" s="38"/>
       <c r="K25" s="39"/>
       <c r="L25" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="27"/>
+      <c r="C26" s="31">
         <v>43431</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="E26" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -2008,29 +2032,29 @@
       <c r="A27" s="4">
         <v>15</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="27"/>
+      <c r="C27" s="31">
         <v>43438</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="28"/>
       <c r="L27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="31">
+      <c r="B28" s="27"/>
+      <c r="C28" s="31">
         <v>43440</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="E28" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -2044,10 +2068,10 @@
       <c r="A29" s="4">
         <v>16</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="27"/>
+      <c r="C29" s="31">
         <v>43445</v>
       </c>
-      <c r="D29" s="27"/>
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
@@ -2056,21 +2080,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="31">
+      <c r="B30" s="27"/>
+      <c r="C30" s="31">
         <v>43449</v>
       </c>
-      <c r="D30" s="27"/>
       <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:L30">
-    <sortCondition ref="D2:D30"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2751,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>8</v>
